--- a/test_results/output.xlsx
+++ b/test_results/output.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr updateLinks="never" codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\03_my_projects\test_status_reporting\test_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S1DLD78\Desktop\test_status_reporting\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A64FE7B-0762-4983-A179-69F5836A4ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E7500E-0DD4-480C-AEAD-761B54DBF897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="679" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status_primary" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Status_primary!$A$1:$A$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Status_primary!$A$1:$A$2</definedName>
     <definedName name="initial">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Status_primary!$A$1:$AJ$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Status_primary!$A$1:$AI$5</definedName>
     <definedName name="statusTabs">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>Module</t>
   </si>
@@ -58,39 +58,53 @@
     <t>Non-Safety Tests (QM Requirements)</t>
   </si>
   <si>
+    <t>marian</t>
+  </si>
+  <si>
+    <t>#Open</t>
+  </si>
+  <si>
+    <t>#Fails</t>
+  </si>
+  <si>
+    <t>Open rate</t>
+  </si>
+  <si>
+    <t>Fail rate</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>#Tests</t>
+  </si>
+  <si>
+    <t>#Not covered</t>
+  </si>
+  <si>
+    <t>#Req.</t>
+  </si>
+  <si>
+    <t>#Req. failed</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>ovi</t>
+  </si>
+  <si>
+    <t>daniel</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
     <t>Non-Safety Tests
-(QM Requirements)
-(ASIL Requirements)</t>
-  </si>
-  <si>
-    <t>marian</t>
-  </si>
-  <si>
-    <t>#Open</t>
-  </si>
-  <si>
-    <t>#Fails</t>
-  </si>
-  <si>
-    <t>Open rate</t>
-  </si>
-  <si>
-    <t>Fail rate</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>#Tests</t>
-  </si>
-  <si>
-    <t>#Not covered</t>
-  </si>
-  <si>
-    <t>#Req.</t>
-  </si>
-  <si>
-    <t>#Req. failed</t>
+(QM Requirements)</t>
   </si>
 </sst>
 </file>
@@ -100,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +167,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -186,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -209,6 +229,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -222,7 +299,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -236,18 +313,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -257,8 +322,26 @@
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -267,7 +350,119 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -756,454 +951,546 @@
   </sheetPr>
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI5" sqref="AI5"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="25.5" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="25.5" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.09765625" style="2" customWidth="1"/>
-    <col min="2" max="6" width="10.69921875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="10.69921875" style="2" customWidth="1"/>
-    <col min="8" max="12" width="10.69921875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="10.69921875" style="2" customWidth="1"/>
-    <col min="14" max="17" width="10.69921875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="20" width="10.296875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="23" width="10.69921875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="10.69921875" style="2" customWidth="1"/>
-    <col min="25" max="34" width="10.69921875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="36" width="10.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="6" width="8.375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.375" style="2" customWidth="1"/>
+    <col min="8" max="12" width="8.375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="8.375" style="2" customWidth="1"/>
+    <col min="14" max="23" width="8.375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="8.375" style="2" customWidth="1"/>
+    <col min="25" max="34" width="8.375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="8.375" style="2" customWidth="1"/>
+    <col min="36" max="36" width="10.75" style="2" customWidth="1"/>
     <col min="37" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6" t="s">
+    <row r="1" spans="1:36" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" s="6" t="s">
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="7" t="s">
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:36" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="3"/>
+    <row r="2" spans="1:36" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ2" s="4"/>
     </row>
-    <row r="3" spans="1:36" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:36" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7">
+        <f t="shared" ref="E3" si="0">IF(B3 = 0,-0.01,C3/(B3))</f>
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3" si="1">IF(B3 = 0,-0.01,D3/(B3))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6">
+        <v>100</v>
+      </c>
+      <c r="I3" s="6">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" ref="K3" si="2">IF(H3 = 0,-0.01,I3/(H3))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3" si="3">IF(H3 = 0,-0.01,J3/(H3))</f>
+        <v>0.01</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="6">
         <v>10</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="9" t="s">
+      <c r="O3" s="6">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7">
+        <f t="shared" ref="Q3" si="4">IF(N3 = 0,-0.01,O3/(N3))</f>
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="7">
+        <f t="shared" ref="R3" si="5">IF(N3 = 0,-0.01,P3/(N3))</f>
+        <v>0.1</v>
+      </c>
+      <c r="S3" s="6">
+        <v>3</v>
+      </c>
+      <c r="T3" s="6">
+        <v>1</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <f>IF(S3=0,"",1 - (U3/S3))</f>
+        <v>1</v>
+      </c>
+      <c r="W3" s="7">
+        <f>IF(S3=0,"",T3/S3)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="6">
         <v>10</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="9" t="s">
+      <c r="Z3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="7">
+        <f t="shared" ref="AB3" si="6">IF(Y3 = 0,-0.01,Z3/(Y3))</f>
+        <v>0.1</v>
+      </c>
+      <c r="AC3" s="7">
+        <f t="shared" ref="AC3" si="7">IF(Y3 = 0,-0.01,AA3/(Y3))</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="7">
+        <f>IF(AD3=0,"",1 - (AF3/AD3))</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="7">
+        <f>IF(AD3=0,"",AE3/AD3)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AI3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ3" s="4"/>
+      <c r="AJ3" s="1"/>
     </row>
-    <row r="4" spans="1:36" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="10">
-        <v>100</v>
-      </c>
-      <c r="C4" s="10">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10">
+    <row r="4" spans="1:36" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4" si="8">IF(B4 = 0,-0.01,C4/(B4))</f>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4" si="9">IF(B4 = 0,-0.01,D4/(B4))</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="6">
+        <v>44</v>
+      </c>
+      <c r="I4" s="6">
+        <v>5</v>
+      </c>
+      <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="11">
-        <f t="shared" ref="E4" si="0">IF(B4 = 0,-0.01,C4/(B4))</f>
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="11">
-        <f t="shared" ref="F4" si="1">IF(B4 = 0,-0.01,D4/(B4))</f>
+      <c r="K4" s="7">
+        <f t="shared" ref="K4" si="10">IF(H4 = 0,-0.01,I4/(H4))</f>
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" ref="L4" si="11">IF(H4 = 0,-0.01,J4/(H4))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="10">
-        <v>100</v>
-      </c>
-      <c r="I4" s="10">
-        <v>10</v>
-      </c>
-      <c r="J4" s="10">
-        <v>1</v>
-      </c>
-      <c r="K4" s="11">
-        <f t="shared" ref="K4" si="2">IF(H4 = 0,-0.01,I4/(H4))</f>
-        <v>0.1</v>
-      </c>
-      <c r="L4" s="11">
-        <f t="shared" ref="L4" si="3">IF(H4 = 0,-0.01,J4/(H4))</f>
-        <v>0.01</v>
-      </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="10">
-        <v>10</v>
-      </c>
-      <c r="O4" s="10">
-        <v>1</v>
-      </c>
-      <c r="P4" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="11">
-        <f t="shared" ref="Q4" si="4">IF(N4 = 0,-0.01,O4/(N4))</f>
-        <v>0.1</v>
-      </c>
-      <c r="R4" s="11">
-        <f t="shared" ref="R4" si="5">IF(N4 = 0,-0.01,P4/(N4))</f>
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="10">
-        <v>3</v>
-      </c>
-      <c r="T4" s="10">
-        <v>1</v>
-      </c>
-      <c r="U4" s="10">
+      <c r="M4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="6">
+        <v>56</v>
+      </c>
+      <c r="O4" s="6">
+        <v>5</v>
+      </c>
+      <c r="P4" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="7">
+        <f t="shared" ref="Q4" si="12">IF(N4 = 0,-0.01,O4/(N4))</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="R4" s="7">
+        <f t="shared" ref="R4" si="13">IF(N4 = 0,-0.01,P4/(N4))</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="S4" s="6">
+        <v>1</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
+      <c r="V4" s="7">
+        <f>IF(S4=0,"",1 - (U4/S4))</f>
         <v>0</v>
       </c>
-      <c r="V4" s="11">
-        <f>IF(S4=0,"",1 - (U4/S4))</f>
-        <v>1</v>
-      </c>
-      <c r="W4" s="11">
+      <c r="W4" s="7">
         <f>IF(S4=0,"",T4/S4)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="10">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="10">
+        <v>1</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="7">
+        <f t="shared" ref="AB4" si="14">IF(Y4 = 0,-0.01,Z4/(Y4))</f>
+        <v>0.5</v>
+      </c>
+      <c r="AC4" s="7">
+        <f t="shared" ref="AC4" si="15">IF(Y4 = 0,-0.01,AA4/(Y4))</f>
+        <v>0.25</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="6">
         <v>0</v>
       </c>
-      <c r="AB4" s="11">
-        <f t="shared" ref="AB4" si="6">IF(Y4 = 0,-0.01,Z4/(Y4))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AC4" s="11">
-        <f t="shared" ref="AC4" si="7">IF(Y4 = 0,-0.01,AA4/(Y4))</f>
+      <c r="AF4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="7">
+        <f>IF(AD4=0,"",1 - (AF4/AD4))</f>
+        <v>0.75</v>
+      </c>
+      <c r="AH4" s="7">
+        <f>IF(AD4=0,"",AE4/AD4)</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="11">
-        <f>IF(AD4=0,"",1 - (AF4/AD4))</f>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="11">
-        <f>IF(AD4=0,"",AE4/AD4)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AI4" s="12"/>
+      <c r="AI4" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="AJ4" s="1"/>
     </row>
-    <row r="5" spans="1:36" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10">
+    <row r="5" spans="1:36" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6">
         <v>23</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <f t="shared" ref="E5" si="8">IF(B5 = 0,-0.01,C5/(B5))</f>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5" si="16">IF(B5 = 0,-0.01,C5/(B5))</f>
         <v>0.13043478260869565</v>
       </c>
-      <c r="F5" s="11">
-        <f t="shared" ref="F5" si="9">IF(B5 = 0,-0.01,D5/(B5))</f>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5" si="17">IF(B5 = 0,-0.01,D5/(B5))</f>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10">
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6">
         <v>44</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="6">
         <v>5</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="11">
-        <f t="shared" ref="K5" si="10">IF(H5 = 0,-0.01,I5/(H5))</f>
+      <c r="K5" s="7">
+        <f t="shared" ref="K5" si="18">IF(H5 = 0,-0.01,I5/(H5))</f>
         <v>0.11363636363636363</v>
       </c>
-      <c r="L5" s="11">
-        <f t="shared" ref="L5" si="11">IF(H5 = 0,-0.01,J5/(H5))</f>
+      <c r="L5" s="7">
+        <f t="shared" ref="L5" si="19">IF(H5 = 0,-0.01,J5/(H5))</f>
         <v>0</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="10">
+      <c r="M5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="6">
         <v>56</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="6">
         <v>5</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="6">
         <v>5</v>
       </c>
-      <c r="Q5" s="11">
-        <f t="shared" ref="Q5" si="12">IF(N5 = 0,-0.01,O5/(N5))</f>
+      <c r="Q5" s="7">
+        <f t="shared" ref="Q5" si="20">IF(N5 = 0,-0.01,O5/(N5))</f>
         <v>8.9285714285714288E-2</v>
       </c>
-      <c r="R5" s="11">
-        <f t="shared" ref="R5" si="13">IF(N5 = 0,-0.01,P5/(N5))</f>
+      <c r="R5" s="7">
+        <f t="shared" ref="R5" si="21">IF(N5 = 0,-0.01,P5/(N5))</f>
         <v>8.9285714285714288E-2</v>
       </c>
-      <c r="S5" s="10">
-        <v>1</v>
-      </c>
-      <c r="T5" s="10">
-        <v>1</v>
-      </c>
-      <c r="U5" s="10">
-        <v>1</v>
-      </c>
-      <c r="V5" s="11">
+      <c r="S5" s="6">
+        <v>1</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="7">
         <f>IF(S5=0,"",1 - (U5/S5))</f>
         <v>0</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="7">
         <f>IF(S5=0,"",T5/S5)</f>
         <v>1</v>
       </c>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="10">
+      <c r="X5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="6">
         <v>4</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="6">
         <v>2</v>
       </c>
-      <c r="AA5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="11">
-        <f t="shared" ref="AB5" si="14">IF(Y5 = 0,-0.01,Z5/(Y5))</f>
+      <c r="AA5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="7">
+        <f t="shared" ref="AB5" si="22">IF(Y5 = 0,-0.01,Z5/(Y5))</f>
         <v>0.5</v>
       </c>
-      <c r="AC5" s="11">
-        <f t="shared" ref="AC5" si="15">IF(Y5 = 0,-0.01,AA5/(Y5))</f>
+      <c r="AC5" s="7">
+        <f t="shared" ref="AC5" si="23">IF(Y5 = 0,-0.01,AA5/(Y5))</f>
         <v>0.25</v>
       </c>
-      <c r="AD5" s="10">
+      <c r="AD5" s="6">
         <v>4</v>
       </c>
-      <c r="AE5" s="10">
+      <c r="AE5" s="6">
         <v>0</v>
       </c>
-      <c r="AF5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="11">
+      <c r="AF5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="7">
         <f>IF(AD5=0,"",1 - (AF5/AD5))</f>
         <v>0.75</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH5" s="7">
         <f>IF(AD5=0,"",AE5/AD5)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="12"/>
+      <c r="AI5" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:36" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1241,32 +1528,71 @@
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
     </row>
-    <row r="9" spans="1:36" ht="25.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:36" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Y1:AH2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:L2"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="N1:W2"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:W1"/>
+    <mergeCell ref="Y1:AH1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:F5 K4:L5 Q4:R5 V4:W5 AB4:AC5 AG4:AH5">
-    <cfRule type="cellIs" dxfId="2" priority="599" operator="lessThan">
+  <conditionalFormatting sqref="E3:F5 K3:L5 Q3:R5 V3:W5 AB3:AC5 AG3:AH5">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="600" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G5">
+    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="NOK">
+      <formula>NOT(ISERROR(SEARCH("NOK",G3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="32" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",G3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="33" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",G3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M5">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="NOK">
+      <formula>NOT(ISERROR(SEARCH("NOK",M3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",M3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",M3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:X5">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NOK">
+      <formula>NOT(ISERROR(SEARCH("NOK",X3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",X3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",X3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3:AI5">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NOK">
+      <formula>NOT(ISERROR(SEARCH("NOK",AI3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",AI3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Open">
+      <formula>NOT(ISERROR(SEARCH("Open",AI3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="30" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
   </headerFooter>
